--- a/data/raw/technical_specs.xlsx
+++ b/data/raw/technical_specs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universiteittwente-my.sharepoint.com/personal/m_sikora_utwente_nl/Documents/Desktop/PhD_Stress-In-Action/01_Database/Dashboard/relational/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxu567\Documents\R\sia.project.1.wi.data\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{EE7EFFBB-AE63-435E-B1B6-7559D67A2B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7DD7791-2CB6-4574-8B29-5D47FD094A4F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464040BA-206D-4D9F-B2C1-FF66EB443872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12960" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{7A7D6C86-A6AC-403C-91E2-C0E7310CD44B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A7D6C86-A6AC-403C-91E2-C0E7310CD44B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>device_id</t>
   </si>
@@ -44,12 +44,6 @@
     <t>001_sia_wd_emp</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>spec_name</t>
   </si>
   <si>
@@ -105,6 +99,9 @@
   </si>
   <si>
     <t>device displays only the time and recording status, data can be viewed via a mobile application</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -157,13 +154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -507,199 +501,199 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>48</v>
       </c>
       <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D11">
         <v>90</v>
       </c>
       <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
